--- a/data/outputs/能源化工元源数据文件_elsevier/15（2)CHEMISTRY LETTERS.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/15（2)CHEMISTRY LETTERS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS64"/>
+  <dimension ref="A1:BU64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +951,12 @@
           <t>2-s2.0-84922486021</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84922515344</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1379,6 +1401,12 @@
           <t>2-s2.0-84922584003</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1602,6 +1630,12 @@
           <t>2-s2.0-84922543614</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1817,6 +1851,12 @@
           <t>2-s2.0-84922558730</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2028,6 +2068,12 @@
           <t>2-s2.0-84922509062</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2231,6 +2277,12 @@
           <t>2-s2.0-84922559293</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2442,6 +2494,12 @@
           <t>2-s2.0-84922485803</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2661,6 +2719,12 @@
           <t>2-s2.0-84922518855</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2864,6 +2928,12 @@
           <t>2-s2.0-84922507355</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3081,6 +3151,12 @@
           <t>2-s2.0-84922447669</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3292,6 +3368,12 @@
           <t>2-s2.0-84922478189</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3503,6 +3585,12 @@
           <t>2-s2.0-84922434117</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3706,6 +3794,12 @@
           <t>2-s2.0-84922449995</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3921,6 +4015,12 @@
           <t>2-s2.0-84922462885</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4141,6 +4241,12 @@
         <is>
           <t>2-s2.0-84922469436</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -4349,6 +4455,12 @@
           <t>2-s2.0-84922464761</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4568,6 +4680,12 @@
           <t>2-s2.0-84922435313</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4787,6 +4905,12 @@
           <t>2-s2.0-84922462802</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4990,6 +5114,12 @@
           <t>2-s2.0-84922475325</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5209,6 +5339,12 @@
           <t>2-s2.0-84922462927</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5412,6 +5548,12 @@
           <t>2-s2.0-84922362761</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5627,6 +5769,12 @@
           <t>2-s2.0-84922469438</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5830,6 +5978,12 @@
           <t>2-s2.0-84922345701</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6041,6 +6195,12 @@
           <t>2-s2.0-84922340730</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6252,6 +6412,12 @@
           <t>2-s2.0-84922454839</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6471,6 +6637,12 @@
           <t>2-s2.0-84922376564</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6686,6 +6858,12 @@
           <t>2-s2.0-84922475629</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6896,6 +7074,12 @@
         <is>
           <t>2-s2.0-84922476996</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -7088,6 +7272,12 @@
           <t>2-s2.0-84922361282</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7303,6 +7493,12 @@
           <t>2-s2.0-84922535240</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7514,6 +7710,12 @@
           <t>2-s2.0-84922526832</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7721,6 +7923,12 @@
           <t>2-s2.0-84922419513</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7924,6 +8132,12 @@
           <t>2-s2.0-84920552398</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8143,6 +8357,12 @@
           <t>2-s2.0-84920608980</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8358,6 +8578,12 @@
           <t>2-s2.0-84920582375</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8577,6 +8803,12 @@
           <t>2-s2.0-84920554973</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8788,6 +9020,12 @@
           <t>2-s2.0-84920609023</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9007,6 +9245,12 @@
           <t>2-s2.0-84920618958</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9226,6 +9470,12 @@
           <t>2-s2.0-84920598127</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9441,6 +9691,12 @@
           <t>2-s2.0-84920611321</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9660,6 +9916,12 @@
           <t>2-s2.0-84920566056</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9879,6 +10141,12 @@
           <t>2-s2.0-84920612335</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10094,6 +10362,12 @@
           <t>2-s2.0-84920591415</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10301,6 +10575,12 @@
           <t>2-s2.0-84920593780</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10512,6 +10792,12 @@
           <t>2-s2.0-84920617264</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10731,6 +11017,12 @@
           <t>2-s2.0-84920577543</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10950,6 +11242,12 @@
           <t>2-s2.0-84920556431</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11169,6 +11467,12 @@
           <t>2-s2.0-84920610736</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11376,6 +11680,12 @@
           <t>2-s2.0-84920586008</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11595,6 +11905,12 @@
           <t>2-s2.0-84920554449</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11798,6 +12114,12 @@
           <t>2-s2.0-84920606995</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12009,6 +12331,12 @@
           <t>2-s2.0-84920619314</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12228,6 +12556,12 @@
           <t>2-s2.0-84920554362</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12443,6 +12777,12 @@
           <t>2-s2.0-84920591606</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12662,6 +13002,12 @@
           <t>2-s2.0-84920624850</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12865,6 +13211,12 @@
           <t>2-s2.0-84920605564</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13084,6 +13436,12 @@
           <t>2-s2.0-84920569749</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13295,6 +13653,12 @@
           <t>2-s2.0-84920562575</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13510,6 +13874,12 @@
           <t>2-s2.0-84920619485</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13729,6 +14099,12 @@
           <t>2-s2.0-84920595988</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13940,6 +14316,12 @@
           <t>2-s2.0-84920608616</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14151,6 +14533,12 @@
           <t>2-s2.0-84920627252</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
